--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_12_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12501.16755718045</v>
+        <v>2487732.343878909</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12501.16755718045</v>
+        <v>2487732.343878909</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46476.35835719369</v>
+        <v>3065843.031069289</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46476.35835719369</v>
+        <v>3065843.031069289</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495700606.249116</v>
+        <v>58929887.04288196</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13944.17872099241</v>
+        <v>1418242.069624071</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26778.20359721002</v>
+        <v>2646134.68394835</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39612.2284734276</v>
+        <v>3874027.298272631</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54492.75837713918</v>
+        <v>4954105.590838208</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68701.9367560899</v>
+        <v>6107143.565254839</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82911.1151350367</v>
+        <v>7260181.53967191</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97120.29351398272</v>
+        <v>8413219.514089065</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111329.4718929296</v>
+        <v>9566257.488506129</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125368.9831682632</v>
+        <v>10691679.90418577</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>139477.3914132881</v>
+        <v>11830812.81683573</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>153585.7996583169</v>
+        <v>12969945.72948527</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>167694.2079033458</v>
+        <v>14109078.6421348</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>181802.6161483747</v>
+        <v>15248211.55478433</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>195911.0243934037</v>
+        <v>16387344.46743386</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>210976.0097446013</v>
+        <v>17399349.39107727</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>169.0000000000605</v>
@@ -27055,10 +27055,10 @@
         <v>2.806373469531536e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>160.0000000000065</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
